--- a/data_and_results/yearly data/2099.xlsx
+++ b/data_and_results/yearly data/2099.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="11760" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="01" sheetId="2" r:id="rId1"/>
@@ -227,7 +227,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M11" authorId="0" shapeId="0">
+    <comment ref="N11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -248,30 +248,6 @@
           </rPr>
           <t xml:space="preserve">
 wośp</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P11" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Autor:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-kino</t>
         </r>
       </text>
     </comment>
@@ -536,6 +512,30 @@
           </rPr>
           <t xml:space="preserve">
 piekarnia</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H14" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+kino</t>
         </r>
       </text>
     </comment>
@@ -813,54 +813,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="N11" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Autor:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-zeszyt</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P11" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Autor:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-kino</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="B12" authorId="0" shapeId="0">
       <text>
         <r>
@@ -954,6 +906,30 @@
           </rPr>
           <t xml:space="preserve">
 spotify</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H12" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+kino</t>
         </r>
       </text>
     </comment>
@@ -1327,7 +1303,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O11" authorId="0" shapeId="0">
+    <comment ref="M11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1841,7 +1817,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M11" authorId="0" shapeId="0">
+    <comment ref="N11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1862,30 +1838,6 @@
           </rPr>
           <t xml:space="preserve">
 prezenty świąteczne</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N11" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Autor:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-kalendarz</t>
         </r>
       </text>
     </comment>
@@ -1934,6 +1886,30 @@
           </rPr>
           <t xml:space="preserve">
 media</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D12" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+kalendarz</t>
         </r>
       </text>
     </comment>
@@ -2379,31 +2355,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N11" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Autor:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-zeszyty</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O11" authorId="0" shapeId="0">
+    <comment ref="M11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2760,6 +2712,30 @@
           </rPr>
           <t xml:space="preserve">
 piekarnia</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D14" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+zeszyty</t>
         </r>
       </text>
     </comment>
@@ -3037,7 +3013,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M11" authorId="0" shapeId="0">
+    <comment ref="N11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3058,54 +3034,6 @@
           </rPr>
           <t xml:space="preserve">
 prezent urodzinowy</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N11" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Autor:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-ksero</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P11" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Autor:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-teatr</t>
         </r>
       </text>
     </comment>
@@ -3301,6 +3229,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="H13" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+teatr</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B14" authorId="0" shapeId="0">
       <text>
         <r>
@@ -3322,6 +3274,30 @@
           </rPr>
           <t xml:space="preserve">
 piekarnia</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G14" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+ksero</t>
         </r>
       </text>
     </comment>
@@ -3599,7 +3575,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M11" authorId="0" shapeId="0">
+    <comment ref="N11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4161,54 +4137,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="N11" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Autor:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-papier do drukarki</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P11" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Autor:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-kino</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="B12" authorId="0" shapeId="0">
       <text>
         <r>
@@ -4377,6 +4305,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="D13" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+papier do drukarki</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="G13" authorId="0" shapeId="0">
       <text>
         <r>
@@ -4398,6 +4350,30 @@
           </rPr>
           <t xml:space="preserve">
 hbo go</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H13" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+kino</t>
         </r>
       </text>
     </comment>
@@ -4699,7 +4675,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O11" authorId="0" shapeId="0">
+    <comment ref="M11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4720,30 +4696,6 @@
           </rPr>
           <t xml:space="preserve">
 opłata administracyjna</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P11" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Autor:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-koncert</t>
         </r>
       </text>
     </comment>
@@ -4888,6 +4840,30 @@
           </rPr>
           <t xml:space="preserve">
 obiady</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H13" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+koncert</t>
         </r>
       </text>
     </comment>
@@ -5165,7 +5141,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M11" authorId="0" shapeId="0">
+    <comment ref="N11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -5261,7 +5237,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M12" authorId="0" shapeId="0">
+    <comment ref="N12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -5607,7 +5583,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O11" authorId="0" shapeId="0">
+    <comment ref="M11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -6049,7 +6025,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M11" authorId="0" shapeId="0">
+    <comment ref="N11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -6318,7 +6294,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="27">
   <si>
     <t>Jedzenie</t>
   </si>
@@ -6356,9 +6332,6 @@
     <t>Przychody:</t>
   </si>
   <si>
-    <t>Papiernicze i biurowe</t>
-  </si>
-  <si>
     <t>Procent [%]</t>
   </si>
   <si>
@@ -6372,9 +6345,6 @@
   </si>
   <si>
     <t>Transport i noclegi</t>
-  </si>
-  <si>
-    <t>Kultura</t>
   </si>
   <si>
     <t>Prez/don:</t>
@@ -7102,32 +7072,32 @@
   <dimension ref="A1:AA140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="7.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B1" s="31">
         <f>E1-A9</f>
@@ -7154,7 +7124,7 @@
     </row>
     <row r="2" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B2" s="32">
         <f>E2-A9</f>
@@ -7162,7 +7132,7 @@
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" s="10">
         <f>SUM(F2:K2)</f>
@@ -7200,10 +7170,10 @@
         <v>4</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H3" s="23"/>
       <c r="I3" s="23"/>
@@ -7253,16 +7223,16 @@
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
@@ -7295,11 +7265,11 @@
       </c>
       <c r="B6" s="29">
         <f>SUM(H9+J9+K9+I9+L9+N9+P9+O9)</f>
-        <v>499</v>
+        <v>519</v>
       </c>
       <c r="C6" s="29">
         <f>SUM(M9)</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D6" s="33">
         <v>1000</v>
@@ -7346,7 +7316,7 @@
     </row>
     <row r="8" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="6">
         <f t="shared" ref="B8:T8" si="0">100*B9/$A$9</f>
@@ -7374,7 +7344,7 @@
       </c>
       <c r="H8" s="6">
         <f t="shared" si="1"/>
-        <v>5.1144565889874203</v>
+        <v>6.1455970303155292</v>
       </c>
       <c r="I8" s="6">
         <f t="shared" si="1"/>
@@ -7394,11 +7364,11 @@
       </c>
       <c r="M8" s="6">
         <f t="shared" ref="M8:S8" si="2">100*M9/$A$9</f>
-        <v>0.82491235306248711</v>
+        <v>0</v>
       </c>
       <c r="N8" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.82491235306248711</v>
       </c>
       <c r="O8" s="6">
         <f t="shared" si="2"/>
@@ -7406,7 +7376,7 @@
       </c>
       <c r="P8" s="6">
         <f t="shared" si="2"/>
-        <v>1.0311404413281089</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="6">
         <f t="shared" si="2"/>
@@ -7456,7 +7426,7 @@
       </c>
       <c r="H9" s="16">
         <f t="shared" si="3"/>
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="I9" s="16">
         <f t="shared" si="3"/>
@@ -7475,20 +7445,20 @@
         <v>0</v>
       </c>
       <c r="M9" s="16">
-        <f t="shared" si="3"/>
+        <f>SUM(M12:M706)</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="16">
+        <f>SUM(N11:N706)</f>
         <v>20</v>
       </c>
-      <c r="N9" s="16">
+      <c r="O9" s="16">
+        <f>SUM(O12:O706)</f>
+        <v>0</v>
+      </c>
+      <c r="P9" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
-      </c>
-      <c r="O9" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P9" s="16">
-        <f t="shared" si="3"/>
-        <v>25</v>
       </c>
       <c r="Q9" s="16">
         <f t="shared" si="3"/>
@@ -7524,7 +7494,7 @@
         <v>6</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G10" s="14" t="s">
         <v>5</v>
@@ -7533,7 +7503,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J10" s="14" t="s">
         <v>2</v>
@@ -7545,17 +7515,13 @@
         <v>7</v>
       </c>
       <c r="M10" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="N10" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="N10" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="O10" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="P10" s="24" t="s">
-        <v>18</v>
-      </c>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
       <c r="Q10" s="24"/>
       <c r="R10" s="24"/>
       <c r="S10" s="24"/>
@@ -7592,14 +7558,12 @@
       <c r="J11" s="19"/>
       <c r="K11" s="19"/>
       <c r="L11" s="19"/>
-      <c r="M11" s="19">
+      <c r="M11" s="19"/>
+      <c r="N11" s="19">
         <v>20</v>
       </c>
-      <c r="N11" s="19"/>
       <c r="O11" s="19"/>
-      <c r="P11" s="19">
-        <v>25</v>
-      </c>
+      <c r="P11" s="19"/>
       <c r="Q11" s="19"/>
       <c r="R11" s="19"/>
       <c r="S11" s="19"/>
@@ -7685,7 +7649,9 @@
       <c r="E14" s="19"/>
       <c r="F14" s="19"/>
       <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
+      <c r="H14" s="19">
+        <v>25</v>
+      </c>
       <c r="I14" s="19"/>
       <c r="J14" s="19"/>
       <c r="K14" s="19"/>
@@ -10651,7 +10617,7 @@
   <dimension ref="A1:AA140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10661,26 +10627,26 @@
     <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="7.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B1" s="31">
         <f>E1-A9</f>
-        <v>741.09999999999991</v>
+        <v>747.09999999999991</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>11</v>
@@ -10703,15 +10669,15 @@
     </row>
     <row r="2" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B2" s="32">
         <f>E2-A9</f>
-        <v>151.09999999999991</v>
+        <v>157.09999999999991</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" s="10">
         <f>SUM(F2:K2)</f>
@@ -10749,10 +10715,10 @@
         <v>4</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H3" s="23"/>
       <c r="I3" s="23"/>
@@ -10802,16 +10768,16 @@
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
@@ -10844,7 +10810,7 @@
       </c>
       <c r="B6" s="29">
         <f>SUM(H9+J9+K9+I9+L9+N9+P9+O9)</f>
-        <v>1469</v>
+        <v>1463</v>
       </c>
       <c r="C6" s="29">
         <f>SUM(M9)</f>
@@ -10895,19 +10861,19 @@
     </row>
     <row r="8" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="6">
         <f t="shared" ref="B8:T8" si="0">100*B9/$A$9</f>
-        <v>20.320364683908956</v>
+        <v>20.359034539630184</v>
       </c>
       <c r="C8" s="6">
         <f t="shared" si="0"/>
-        <v>29.757193959922756</v>
+        <v>29.813822195439119</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" si="0"/>
-        <v>0.72810155433853552</v>
+        <v>0.72948713882457417</v>
       </c>
       <c r="E8" s="6">
         <f t="shared" si="0"/>
@@ -10915,23 +10881,23 @@
       </c>
       <c r="F8" s="6">
         <f t="shared" si="0"/>
-        <v>1.2662635727626705</v>
+        <v>1.268673284912303</v>
       </c>
       <c r="G8" s="6">
         <f t="shared" si="0"/>
-        <v>1.4245465193580042</v>
+        <v>1.4272574455263407</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" si="0"/>
-        <v>2.8490930387160085</v>
+        <v>3.6157188620000635</v>
       </c>
       <c r="I8" s="6">
         <f t="shared" si="0"/>
-        <v>3.1340023425876096</v>
+        <v>3.1399663801579498</v>
       </c>
       <c r="J8" s="6">
         <f t="shared" si="0"/>
-        <v>39.570736648833453</v>
+        <v>39.646040153509468</v>
       </c>
       <c r="K8" s="6">
         <f t="shared" si="0"/>
@@ -10947,7 +10913,7 @@
       </c>
       <c r="N8" s="6">
         <f t="shared" si="0"/>
-        <v>0.18993953591440058</v>
+        <v>0</v>
       </c>
       <c r="O8" s="6">
         <f t="shared" si="0"/>
@@ -10955,7 +10921,7 @@
       </c>
       <c r="P8" s="6">
         <f t="shared" si="0"/>
-        <v>0.7597581436576023</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="6">
         <f t="shared" si="0"/>
@@ -10977,7 +10943,7 @@
     <row r="9" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <f>SUM(B9:Z9)</f>
-        <v>3158.9</v>
+        <v>3152.9</v>
       </c>
       <c r="B9" s="16">
         <f>SUM(B11:B706)</f>
@@ -11005,7 +10971,7 @@
       </c>
       <c r="H9" s="16">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="I9" s="16">
         <f t="shared" si="1"/>
@@ -11029,7 +10995,7 @@
       </c>
       <c r="N9" s="16">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O9" s="16">
         <f t="shared" si="1"/>
@@ -11037,7 +11003,7 @@
       </c>
       <c r="P9" s="16">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="16">
         <f t="shared" si="1"/>
@@ -11073,7 +11039,7 @@
         <v>6</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G10" s="14" t="s">
         <v>5</v>
@@ -11082,7 +11048,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J10" s="14" t="s">
         <v>2</v>
@@ -11094,17 +11060,12 @@
         <v>7</v>
       </c>
       <c r="M10" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="N10" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="N10" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="O10" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="P10" s="24" t="s">
-        <v>18</v>
-      </c>
+      <c r="P10" s="24"/>
       <c r="Q10" s="24"/>
       <c r="R10" s="24"/>
       <c r="S10" s="24"/>
@@ -11142,13 +11103,9 @@
       <c r="K11" s="19"/>
       <c r="L11" s="19"/>
       <c r="M11" s="19"/>
-      <c r="N11" s="19">
-        <v>6</v>
-      </c>
+      <c r="N11" s="19"/>
       <c r="O11" s="19"/>
-      <c r="P11" s="19">
-        <v>24</v>
-      </c>
+      <c r="P11" s="19"/>
       <c r="Q11" s="19"/>
       <c r="R11" s="19"/>
       <c r="S11" s="19"/>
@@ -11172,7 +11129,9 @@
       <c r="G12" s="19">
         <v>20</v>
       </c>
-      <c r="H12" s="19"/>
+      <c r="H12" s="19">
+        <v>24</v>
+      </c>
       <c r="I12" s="19"/>
       <c r="J12" s="19">
         <v>350</v>
@@ -14191,7 +14150,7 @@
   <dimension ref="A1:AA140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G6:G7"/>
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14203,20 +14162,20 @@
     <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.109375" customWidth="1"/>
     <col min="15" max="15" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="7.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B1" s="31">
         <f>E1-A9</f>
@@ -14243,7 +14202,7 @@
     </row>
     <row r="2" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B2" s="32">
         <f>E2-A9</f>
@@ -14251,7 +14210,7 @@
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" s="10">
         <f>SUM(F2:K2)</f>
@@ -14289,10 +14248,10 @@
         <v>4</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H3" s="23"/>
       <c r="I3" s="23"/>
@@ -14342,16 +14301,16 @@
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
@@ -14384,11 +14343,11 @@
       </c>
       <c r="B6" s="29">
         <f>SUM(H9+J9+K9+I9+L9+N9+P9+O9)</f>
-        <v>265</v>
+        <v>185</v>
       </c>
       <c r="C6" s="29">
         <f>SUM(M9)</f>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D6" s="33">
         <v>900</v>
@@ -14435,7 +14394,7 @@
     </row>
     <row r="8" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="6">
         <f t="shared" ref="B8:T8" si="0">100*B9/$A$9</f>
@@ -14483,7 +14442,7 @@
       </c>
       <c r="M8" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.7109193802764633</v>
       </c>
       <c r="N8" s="6">
         <f t="shared" si="0"/>
@@ -14491,7 +14450,7 @@
       </c>
       <c r="O8" s="6">
         <f t="shared" si="0"/>
-        <v>3.7109193802764633</v>
+        <v>0</v>
       </c>
       <c r="P8" s="6">
         <f t="shared" si="0"/>
@@ -14564,8 +14523,8 @@
         <v>35</v>
       </c>
       <c r="M9" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUM(M11:M706)</f>
+        <v>80</v>
       </c>
       <c r="N9" s="16">
         <f t="shared" si="1"/>
@@ -14573,7 +14532,7 @@
       </c>
       <c r="O9" s="16">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="P9" s="16">
         <f t="shared" si="1"/>
@@ -14613,7 +14572,7 @@
         <v>6</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G10" s="14" t="s">
         <v>5</v>
@@ -14622,7 +14581,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J10" s="14" t="s">
         <v>2</v>
@@ -14634,17 +14593,12 @@
         <v>7</v>
       </c>
       <c r="M10" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="N10" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="N10" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="O10" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="P10" s="24" t="s">
-        <v>18</v>
-      </c>
+      <c r="P10" s="24"/>
       <c r="Q10" s="24"/>
       <c r="R10" s="24"/>
       <c r="S10" s="24"/>
@@ -14683,11 +14637,11 @@
       <c r="L11" s="19">
         <v>35</v>
       </c>
-      <c r="M11" s="19"/>
+      <c r="M11" s="19">
+        <v>80</v>
+      </c>
       <c r="N11" s="19"/>
-      <c r="O11" s="19">
-        <v>80</v>
-      </c>
+      <c r="O11" s="19"/>
       <c r="P11" s="19"/>
       <c r="Q11" s="19"/>
       <c r="R11" s="19"/>
@@ -17733,7 +17687,7 @@
   <dimension ref="A1:AA140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17744,21 +17698,21 @@
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="7.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B1" s="31">
         <f>E1-A9</f>
@@ -17785,7 +17739,7 @@
     </row>
     <row r="2" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B2" s="32">
         <f>E2-A9</f>
@@ -17793,7 +17747,7 @@
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" s="10">
         <f>SUM(F2:K2)</f>
@@ -17831,10 +17785,10 @@
         <v>4</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H3" s="23"/>
       <c r="I3" s="23"/>
@@ -17884,16 +17838,16 @@
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
@@ -17922,15 +17876,15 @@
     <row r="6" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="28">
         <f>SUM(B9+C9+D9+F9+E9+G9)</f>
-        <v>1780.9</v>
+        <v>1805.9</v>
       </c>
       <c r="B6" s="29">
         <f>SUM(H9+J9+K9+I9+L9+N9+P9+O9)</f>
-        <v>375</v>
+        <v>530</v>
       </c>
       <c r="C6" s="29">
         <f>SUM(M9)</f>
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="D6" s="33">
         <v>700</v>
@@ -17977,7 +17931,7 @@
     </row>
     <row r="8" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="6">
         <f t="shared" ref="B8:T8" si="0">100*B9/$A$9</f>
@@ -17989,7 +17943,7 @@
       </c>
       <c r="D8" s="6">
         <f t="shared" si="0"/>
-        <v>1.3699216576052056</v>
+        <v>2.4401729526092724</v>
       </c>
       <c r="E8" s="6">
         <f t="shared" si="0"/>
@@ -18025,11 +17979,11 @@
       </c>
       <c r="M8" s="6">
         <f t="shared" si="0"/>
-        <v>7.705809324029282</v>
+        <v>0</v>
       </c>
       <c r="N8" s="6">
         <f t="shared" si="0"/>
-        <v>1.070251295004067</v>
+        <v>7.705809324029282</v>
       </c>
       <c r="O8" s="6">
         <f t="shared" si="0"/>
@@ -18071,7 +18025,7 @@
       </c>
       <c r="D9" s="16">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="E9" s="16">
         <f t="shared" si="1"/>
@@ -18107,11 +18061,11 @@
       </c>
       <c r="M9" s="16">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N9" s="16">
+        <f>SUM(N11:N706)</f>
         <v>180</v>
-      </c>
-      <c r="N9" s="16">
-        <f t="shared" si="1"/>
-        <v>25</v>
       </c>
       <c r="O9" s="16">
         <f t="shared" si="1"/>
@@ -18155,7 +18109,7 @@
         <v>6</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G10" s="14" t="s">
         <v>5</v>
@@ -18164,7 +18118,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J10" s="14" t="s">
         <v>2</v>
@@ -18176,17 +18130,12 @@
         <v>7</v>
       </c>
       <c r="M10" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="N10" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="N10" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="O10" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="P10" s="24" t="s">
-        <v>18</v>
-      </c>
+      <c r="P10" s="24"/>
       <c r="Q10" s="24"/>
       <c r="R10" s="24"/>
       <c r="S10" s="24"/>
@@ -18225,11 +18174,9 @@
       </c>
       <c r="K11" s="19"/>
       <c r="L11" s="19"/>
-      <c r="M11" s="19">
+      <c r="M11" s="19"/>
+      <c r="N11" s="19">
         <v>180</v>
-      </c>
-      <c r="N11" s="19">
-        <v>25</v>
       </c>
       <c r="O11" s="19"/>
       <c r="P11" s="19"/>
@@ -18248,7 +18195,9 @@
       <c r="C12" s="19">
         <v>160</v>
       </c>
-      <c r="D12" s="19"/>
+      <c r="D12" s="19">
+        <v>25</v>
+      </c>
       <c r="E12" s="19"/>
       <c r="F12" s="19">
         <v>25</v>
@@ -21276,33 +21225,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA140"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:I3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.44140625" customWidth="1"/>
+    <col min="14" max="14" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="7.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B1" s="31">
         <f>E1-A9</f>
@@ -21329,7 +21278,7 @@
     </row>
     <row r="2" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B2" s="32">
         <f>E2-A9</f>
@@ -21337,7 +21286,7 @@
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" s="10">
         <f>SUM(F2:K2)</f>
@@ -21375,10 +21324,10 @@
         <v>4</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H3" s="23"/>
       <c r="I3" s="23"/>
@@ -21428,16 +21377,16 @@
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
@@ -21466,15 +21415,15 @@
     <row r="6" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="28">
         <f>SUM(B9+C9+D9+F9+E9+G9)</f>
-        <v>1999</v>
+        <v>2014</v>
       </c>
       <c r="B6" s="29">
         <f>SUM(H9+J9+K9+I9+L9+N9+P9+O9)</f>
-        <v>1202</v>
+        <v>1137</v>
       </c>
       <c r="C6" s="29">
         <f>SUM(M9)</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D6" s="33">
         <v>900</v>
@@ -21521,7 +21470,7 @@
     </row>
     <row r="8" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="6">
         <f t="shared" ref="B8:T8" si="0">100*B9/$A$9</f>
@@ -21533,7 +21482,7 @@
       </c>
       <c r="D8" s="6">
         <f t="shared" si="0"/>
-        <v>5.2483598875351456</v>
+        <v>5.7169634489222121</v>
       </c>
       <c r="E8" s="6">
         <f t="shared" si="0"/>
@@ -21569,15 +21518,15 @@
       </c>
       <c r="M8" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.5620118712902218</v>
       </c>
       <c r="N8" s="6">
         <f t="shared" si="0"/>
-        <v>0.46860356138706655</v>
+        <v>0</v>
       </c>
       <c r="O8" s="6">
         <f t="shared" si="0"/>
-        <v>1.5620118712902218</v>
+        <v>0</v>
       </c>
       <c r="P8" s="6">
         <f t="shared" si="0"/>
@@ -21615,7 +21564,7 @@
       </c>
       <c r="D9" s="16">
         <f t="shared" si="1"/>
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="E9" s="16">
         <f t="shared" si="1"/>
@@ -21650,16 +21599,16 @@
         <v>90</v>
       </c>
       <c r="M9" s="16">
+        <f>SUM(M11:M706)</f>
+        <v>50</v>
+      </c>
+      <c r="N9" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N9" s="16">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
       <c r="O9" s="16">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="P9" s="16">
         <f t="shared" si="1"/>
@@ -21699,7 +21648,7 @@
         <v>6</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G10" s="14" t="s">
         <v>5</v>
@@ -21708,7 +21657,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J10" s="14" t="s">
         <v>2</v>
@@ -21720,17 +21669,12 @@
         <v>7</v>
       </c>
       <c r="M10" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="N10" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="N10" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="O10" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="P10" s="24" t="s">
-        <v>18</v>
-      </c>
+      <c r="P10" s="24"/>
       <c r="Q10" s="24"/>
       <c r="R10" s="24"/>
       <c r="S10" s="24"/>
@@ -21769,13 +21713,11 @@
       <c r="L11" s="19">
         <v>90</v>
       </c>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19">
-        <v>15</v>
-      </c>
-      <c r="O11" s="19">
+      <c r="M11" s="19">
         <v>50</v>
       </c>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
       <c r="P11" s="19"/>
       <c r="Q11" s="19"/>
       <c r="R11" s="19"/>
@@ -21864,7 +21806,9 @@
         <v>75</v>
       </c>
       <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
+      <c r="D14" s="19">
+        <v>15</v>
+      </c>
       <c r="E14" s="19"/>
       <c r="F14" s="19">
         <v>80</v>
@@ -24835,7 +24779,7 @@
   <dimension ref="A1:AA140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24851,16 +24795,16 @@
     <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="7.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B1" s="31">
         <f>E1-A9</f>
@@ -24889,7 +24833,7 @@
     </row>
     <row r="2" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B2" s="32">
         <f>E2-A9</f>
@@ -24897,7 +24841,7 @@
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" s="10">
         <f>SUM(F2:K2)</f>
@@ -24937,13 +24881,13 @@
         <v>4</v>
       </c>
       <c r="F3" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="23" t="s">
         <v>25</v>
-      </c>
-      <c r="G3" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="23" t="s">
-        <v>27</v>
       </c>
       <c r="I3" s="23"/>
       <c r="J3" s="23"/>
@@ -24992,16 +24936,16 @@
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
@@ -25030,15 +24974,15 @@
     <row r="6" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="28">
         <f>SUM(B9+C9+D9+F9+E9+G9)</f>
-        <v>1686.23</v>
+        <v>1688.73</v>
       </c>
       <c r="B6" s="29">
         <f>SUM(H9+J9+K9+I9+L9+N9+P9+O9)</f>
-        <v>357.5</v>
+        <v>405</v>
       </c>
       <c r="C6" s="29">
         <f>SUM(M9)</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D6" s="33">
         <v>1100</v>
@@ -25085,7 +25029,7 @@
     </row>
     <row r="8" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="6">
         <f t="shared" ref="B8:T8" si="0">100*B9/$A$9</f>
@@ -25109,11 +25053,11 @@
       </c>
       <c r="G8" s="6">
         <f t="shared" si="0"/>
-        <v>3.1045072669350873</v>
+        <v>3.2239113925864364</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" si="0"/>
-        <v>5.0149732773566793</v>
+        <v>7.4030557903836689</v>
       </c>
       <c r="I8" s="6">
         <f t="shared" si="0"/>
@@ -25133,11 +25077,11 @@
       </c>
       <c r="M8" s="6">
         <f t="shared" si="0"/>
-        <v>2.38808251302699</v>
+        <v>0</v>
       </c>
       <c r="N8" s="6">
         <f t="shared" si="0"/>
-        <v>0.1194041256513495</v>
+        <v>2.38808251302699</v>
       </c>
       <c r="O8" s="6">
         <f t="shared" si="0"/>
@@ -25145,7 +25089,7 @@
       </c>
       <c r="P8" s="6">
         <f t="shared" si="0"/>
-        <v>2.38808251302699</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="6">
         <f t="shared" si="0"/>
@@ -25191,11 +25135,11 @@
       </c>
       <c r="G9" s="16">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>67.5</v>
       </c>
       <c r="H9" s="16">
         <f t="shared" si="1"/>
-        <v>105</v>
+        <v>155</v>
       </c>
       <c r="I9" s="16">
         <f t="shared" si="1"/>
@@ -25214,12 +25158,12 @@
         <v>0</v>
       </c>
       <c r="M9" s="16">
-        <f t="shared" si="1"/>
+        <f>SUM(M12:M706)</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="16">
+        <f>SUM(N11:N706)</f>
         <v>50</v>
-      </c>
-      <c r="N9" s="16">
-        <f t="shared" si="1"/>
-        <v>2.5</v>
       </c>
       <c r="O9" s="16">
         <f t="shared" si="1"/>
@@ -25227,7 +25171,7 @@
       </c>
       <c r="P9" s="16">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="16">
         <f t="shared" si="1"/>
@@ -25263,7 +25207,7 @@
         <v>6</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G10" s="14" t="s">
         <v>5</v>
@@ -25272,7 +25216,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J10" s="14" t="s">
         <v>2</v>
@@ -25284,17 +25228,13 @@
         <v>7</v>
       </c>
       <c r="M10" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="N10" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="N10" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="O10" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="P10" s="24" t="s">
-        <v>18</v>
-      </c>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
       <c r="Q10" s="24"/>
       <c r="R10" s="24"/>
       <c r="S10" s="24"/>
@@ -25329,16 +25269,12 @@
       <c r="J11" s="19"/>
       <c r="K11" s="19"/>
       <c r="L11" s="19"/>
-      <c r="M11" s="19">
+      <c r="M11" s="19"/>
+      <c r="N11" s="19">
         <v>50</v>
       </c>
-      <c r="N11" s="19">
-        <v>2.5</v>
-      </c>
       <c r="O11" s="19"/>
-      <c r="P11" s="19">
-        <v>50</v>
-      </c>
+      <c r="P11" s="19"/>
       <c r="Q11" s="19"/>
       <c r="R11" s="19"/>
       <c r="S11" s="19"/>
@@ -25394,7 +25330,9 @@
       <c r="G13" s="19">
         <v>20</v>
       </c>
-      <c r="H13" s="19"/>
+      <c r="H13" s="19">
+        <v>50</v>
+      </c>
       <c r="I13" s="19"/>
       <c r="J13" s="19"/>
       <c r="K13" s="19"/>
@@ -25419,7 +25357,9 @@
       <c r="D14" s="19"/>
       <c r="E14" s="19"/>
       <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
+      <c r="G14" s="19">
+        <v>2.5</v>
+      </c>
       <c r="H14" s="19"/>
       <c r="I14" s="19"/>
       <c r="J14" s="19"/>
@@ -28383,7 +28323,7 @@
   <dimension ref="A1:AA140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28394,21 +28334,21 @@
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="7.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B1" s="31">
         <f>E1-A9</f>
@@ -28435,7 +28375,7 @@
     </row>
     <row r="2" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B2" s="32">
         <f>E2-A9</f>
@@ -28443,7 +28383,7 @@
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" s="10">
         <f>SUM(F2:K2)</f>
@@ -28481,10 +28421,10 @@
         <v>4</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H3" s="23"/>
       <c r="I3" s="23"/>
@@ -28534,16 +28474,16 @@
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
@@ -28576,11 +28516,11 @@
       </c>
       <c r="B6" s="29">
         <f>SUM(H9+J9+K9+I9+L9+N9+P9+O9)</f>
-        <v>410</v>
+        <v>425</v>
       </c>
       <c r="C6" s="29">
         <f>SUM(M9)</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D6" s="33">
         <v>1250</v>
@@ -28627,7 +28567,7 @@
     </row>
     <row r="8" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="6">
         <f t="shared" ref="B8:T8" si="0">100*B9/$A$9</f>
@@ -28675,11 +28615,11 @@
       </c>
       <c r="M8" s="6">
         <f t="shared" si="0"/>
-        <v>0.69864927806241262</v>
+        <v>0</v>
       </c>
       <c r="N8" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.69864927806241262</v>
       </c>
       <c r="O8" s="6">
         <f t="shared" si="0"/>
@@ -28756,15 +28696,15 @@
         <v>40</v>
       </c>
       <c r="M9" s="16">
-        <f t="shared" si="1"/>
+        <f>SUM(M12:M706)</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="16">
+        <f>SUM(N11:N706)</f>
         <v>15</v>
       </c>
-      <c r="N9" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="O9" s="16">
-        <f t="shared" si="1"/>
+        <f>SUM(O12:O706)</f>
         <v>0</v>
       </c>
       <c r="P9" s="16">
@@ -28805,7 +28745,7 @@
         <v>6</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G10" s="14" t="s">
         <v>5</v>
@@ -28814,7 +28754,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J10" s="14" t="s">
         <v>2</v>
@@ -28826,17 +28766,13 @@
         <v>7</v>
       </c>
       <c r="M10" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="N10" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="N10" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="O10" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="P10" s="24" t="s">
-        <v>18</v>
-      </c>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
       <c r="Q10" s="24"/>
       <c r="R10" s="24"/>
       <c r="S10" s="24"/>
@@ -28875,10 +28811,10 @@
       <c r="L11" s="19">
         <v>40</v>
       </c>
-      <c r="M11" s="19">
+      <c r="M11" s="19"/>
+      <c r="N11" s="19">
         <v>15</v>
       </c>
-      <c r="N11" s="19"/>
       <c r="O11" s="19"/>
       <c r="P11" s="19"/>
       <c r="Q11" s="19"/>
@@ -31927,7 +31863,7 @@
   <dimension ref="A1:AA140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="O15" sqref="O15:O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -31936,23 +31872,23 @@
     <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="7.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B1" s="31">
         <f>E1-A9</f>
@@ -31979,7 +31915,7 @@
     </row>
     <row r="2" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B2" s="32">
         <f>E2-A9</f>
@@ -31987,7 +31923,7 @@
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" s="10">
         <f>SUM(F2:K2)</f>
@@ -32025,10 +31961,10 @@
         <v>4</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H3" s="23"/>
       <c r="I3" s="23"/>
@@ -32078,16 +32014,16 @@
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
@@ -32116,11 +32052,11 @@
     <row r="6" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="28">
         <f>SUM(B9+C9+D9+F9+E9+G9)</f>
-        <v>1838</v>
+        <v>1848</v>
       </c>
       <c r="B6" s="29">
         <f>SUM(H9+J9+K9+I9+L9+N9+P9+O9)</f>
-        <v>924</v>
+        <v>914</v>
       </c>
       <c r="C6" s="29">
         <f>SUM(M9)</f>
@@ -32171,7 +32107,7 @@
     </row>
     <row r="8" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="6">
         <f t="shared" ref="B8:T8" si="0">100*B9/$A$9</f>
@@ -32183,7 +32119,7 @@
       </c>
       <c r="D8" s="6">
         <f t="shared" si="0"/>
-        <v>1.7740767559739319</v>
+        <v>2.1361332367849384</v>
       </c>
       <c r="E8" s="6">
         <f t="shared" si="0"/>
@@ -32199,7 +32135,7 @@
       </c>
       <c r="H8" s="6">
         <f t="shared" si="0"/>
-        <v>3.7653874004344678</v>
+        <v>4.4895003620564804</v>
       </c>
       <c r="I8" s="6">
         <f t="shared" si="0"/>
@@ -32223,7 +32159,7 @@
       </c>
       <c r="N8" s="6">
         <f t="shared" si="0"/>
-        <v>0.3620564808110065</v>
+        <v>0</v>
       </c>
       <c r="O8" s="6">
         <f t="shared" si="0"/>
@@ -32231,7 +32167,7 @@
       </c>
       <c r="P8" s="6">
         <f t="shared" si="0"/>
-        <v>0.724112961622013</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="6">
         <f t="shared" si="0"/>
@@ -32265,7 +32201,7 @@
       </c>
       <c r="D9" s="16">
         <f t="shared" si="1"/>
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="E9" s="16">
         <f t="shared" si="1"/>
@@ -32281,7 +32217,7 @@
       </c>
       <c r="H9" s="16">
         <f t="shared" si="1"/>
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="I9" s="16">
         <f t="shared" si="1"/>
@@ -32305,7 +32241,7 @@
       </c>
       <c r="N9" s="16">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O9" s="16">
         <f t="shared" si="1"/>
@@ -32313,7 +32249,7 @@
       </c>
       <c r="P9" s="16">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="16">
         <f t="shared" si="1"/>
@@ -32349,7 +32285,7 @@
         <v>6</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G10" s="14" t="s">
         <v>5</v>
@@ -32358,7 +32294,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J10" s="14" t="s">
         <v>2</v>
@@ -32370,17 +32306,13 @@
         <v>7</v>
       </c>
       <c r="M10" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="N10" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="N10" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="O10" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="P10" s="24" t="s">
-        <v>18</v>
-      </c>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
       <c r="Q10" s="24"/>
       <c r="R10" s="24"/>
       <c r="S10" s="24"/>
@@ -32422,13 +32354,9 @@
         <v>80</v>
       </c>
       <c r="M11" s="19"/>
-      <c r="N11" s="19">
-        <v>10</v>
-      </c>
+      <c r="N11" s="19"/>
       <c r="O11" s="19"/>
-      <c r="P11" s="19">
-        <v>20</v>
-      </c>
+      <c r="P11" s="19"/>
       <c r="Q11" s="19"/>
       <c r="R11" s="19"/>
       <c r="S11" s="19"/>
@@ -32478,13 +32406,17 @@
         <v>110</v>
       </c>
       <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
+      <c r="D13" s="19">
+        <v>10</v>
+      </c>
       <c r="E13" s="19"/>
       <c r="F13" s="19"/>
       <c r="G13" s="19">
         <v>20</v>
       </c>
-      <c r="H13" s="19"/>
+      <c r="H13" s="19">
+        <v>20</v>
+      </c>
       <c r="I13" s="19"/>
       <c r="J13" s="19">
         <v>250</v>
@@ -35476,8 +35408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA140"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -35485,24 +35417,24 @@
     <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="7.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B1" s="31">
         <f>E1-A9</f>
@@ -35529,7 +35461,7 @@
     </row>
     <row r="2" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B2" s="32">
         <f>E2-A9</f>
@@ -35537,7 +35469,7 @@
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" s="10">
         <f>SUM(F2:K2)</f>
@@ -35575,10 +35507,10 @@
         <v>4</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H3" s="23"/>
       <c r="I3" s="23"/>
@@ -35628,16 +35560,16 @@
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
@@ -35670,11 +35602,11 @@
       </c>
       <c r="B6" s="29">
         <f>SUM(H9+J9+K9+I9+L9+N9+P9+O9)</f>
-        <v>2810</v>
+        <v>2780</v>
       </c>
       <c r="C6" s="29">
         <f>SUM(M9)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D6" s="33">
         <v>800</v>
@@ -35721,7 +35653,7 @@
     </row>
     <row r="8" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="6">
         <f t="shared" ref="B8:T8" si="0">100*B9/$A$9</f>
@@ -35749,7 +35681,7 @@
       </c>
       <c r="H8" s="6">
         <f t="shared" si="0"/>
-        <v>4.0087301233798049</v>
+        <v>5.3449734978397405</v>
       </c>
       <c r="I8" s="6">
         <f t="shared" si="0"/>
@@ -35769,7 +35701,7 @@
       </c>
       <c r="M8" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.66812168722996756</v>
       </c>
       <c r="N8" s="6">
         <f t="shared" si="0"/>
@@ -35777,11 +35709,11 @@
       </c>
       <c r="O8" s="6">
         <f t="shared" si="0"/>
-        <v>0.66812168722996756</v>
+        <v>0</v>
       </c>
       <c r="P8" s="6">
         <f t="shared" si="0"/>
-        <v>1.3362433744599351</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="6">
         <f t="shared" si="0"/>
@@ -35831,7 +35763,7 @@
       </c>
       <c r="H9" s="16">
         <f t="shared" si="1"/>
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="I9" s="16">
         <f t="shared" si="1"/>
@@ -35850,8 +35782,8 @@
         <v>0</v>
       </c>
       <c r="M9" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUM(M11:M706)</f>
+        <v>30</v>
       </c>
       <c r="N9" s="16">
         <f t="shared" si="1"/>
@@ -35859,11 +35791,11 @@
       </c>
       <c r="O9" s="16">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="P9" s="16">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="16">
         <f t="shared" si="1"/>
@@ -35899,7 +35831,7 @@
         <v>6</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G10" s="14" t="s">
         <v>5</v>
@@ -35908,7 +35840,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J10" s="14" t="s">
         <v>2</v>
@@ -35920,17 +35852,13 @@
         <v>7</v>
       </c>
       <c r="M10" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="N10" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="N10" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="O10" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="P10" s="24" t="s">
-        <v>18</v>
-      </c>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
       <c r="Q10" s="24"/>
       <c r="R10" s="24"/>
       <c r="S10" s="24"/>
@@ -35965,14 +35893,12 @@
         <v>40</v>
       </c>
       <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
+      <c r="M11" s="19">
+        <v>30</v>
+      </c>
       <c r="N11" s="19"/>
-      <c r="O11" s="19">
-        <v>30</v>
-      </c>
-      <c r="P11" s="19">
-        <v>60</v>
-      </c>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
       <c r="Q11" s="19"/>
       <c r="R11" s="19"/>
       <c r="S11" s="19"/>
@@ -36024,7 +35950,9 @@
       <c r="E13" s="19"/>
       <c r="F13" s="19"/>
       <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
+      <c r="H13" s="19">
+        <v>60</v>
+      </c>
       <c r="I13" s="19"/>
       <c r="J13" s="19"/>
       <c r="K13" s="19"/>
@@ -39013,7 +38941,7 @@
   <dimension ref="A1:AA140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -39031,14 +38959,14 @@
     <col min="11" max="11" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="7.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B1" s="31">
         <f>E1-A9</f>
@@ -39063,7 +38991,7 @@
     </row>
     <row r="2" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B2" s="32">
         <f>E2-A9</f>
@@ -39071,7 +38999,7 @@
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" s="10">
         <f>SUM(F2:K2)</f>
@@ -39107,7 +39035,7 @@
         <v>4</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
@@ -39158,16 +39086,16 @@
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
@@ -39200,11 +39128,11 @@
       </c>
       <c r="B6" s="29">
         <f>SUM(H9+J9+K9+I9+L9+N9+P9+O9)</f>
-        <v>340</v>
+        <v>410</v>
       </c>
       <c r="C6" s="29">
         <f>SUM(M9)</f>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="D6" s="33">
         <v>750</v>
@@ -39251,7 +39179,7 @@
     </row>
     <row r="8" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="6">
         <f t="shared" ref="B8:T8" si="0">100*B9/$A$9</f>
@@ -39299,11 +39227,11 @@
       </c>
       <c r="M8" s="6">
         <f t="shared" si="0"/>
-        <v>3.1244420639171575</v>
+        <v>0</v>
       </c>
       <c r="N8" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.1244420639171575</v>
       </c>
       <c r="O8" s="6">
         <f t="shared" si="0"/>
@@ -39381,14 +39309,14 @@
       </c>
       <c r="M9" s="16">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N9" s="16">
+        <f>SUM(N11:N706)</f>
         <v>70</v>
       </c>
-      <c r="N9" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="O9" s="16">
-        <f t="shared" si="1"/>
+        <f>SUM(O13:O706)</f>
         <v>0</v>
       </c>
       <c r="P9" s="16">
@@ -39429,7 +39357,7 @@
         <v>6</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G10" s="14" t="s">
         <v>5</v>
@@ -39438,7 +39366,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J10" s="14" t="s">
         <v>2</v>
@@ -39450,17 +39378,12 @@
         <v>7</v>
       </c>
       <c r="M10" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="N10" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="N10" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="O10" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="P10" s="24" t="s">
-        <v>18</v>
-      </c>
+      <c r="P10" s="24"/>
       <c r="Q10" s="24"/>
       <c r="R10" s="24"/>
       <c r="S10" s="24"/>
@@ -39497,10 +39420,10 @@
         <v>100</v>
       </c>
       <c r="L11" s="19"/>
-      <c r="M11" s="19">
+      <c r="M11" s="19"/>
+      <c r="N11" s="19">
         <v>30</v>
       </c>
-      <c r="N11" s="19"/>
       <c r="O11" s="19"/>
       <c r="P11" s="19"/>
       <c r="Q11" s="19"/>
@@ -39529,10 +39452,10 @@
       <c r="J12" s="19"/>
       <c r="K12" s="19"/>
       <c r="L12" s="19"/>
-      <c r="M12" s="19">
+      <c r="M12" s="19"/>
+      <c r="N12" s="19">
         <v>40</v>
       </c>
-      <c r="N12" s="19"/>
       <c r="O12" s="19"/>
       <c r="P12" s="19"/>
       <c r="Q12" s="19"/>
@@ -42541,7 +42464,7 @@
   <dimension ref="A1:AA140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -42552,25 +42475,25 @@
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="7.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B1" s="31">
         <f>E1-A9</f>
-        <v>-236.30000000000018</v>
+        <v>-36.300000000000182</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>11</v>
@@ -42591,15 +42514,15 @@
     </row>
     <row r="2" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B2" s="32">
         <f>E2-A9</f>
-        <v>-106.30000000000018</v>
+        <v>93.699999999999818</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" s="10">
         <f>SUM(F2:K2)</f>
@@ -42635,7 +42558,7 @@
         <v>4</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
@@ -42686,16 +42609,16 @@
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
@@ -42728,7 +42651,7 @@
       </c>
       <c r="B6" s="29">
         <f>SUM(H9+J9+K9+I9+L9+N9+P9+O9)</f>
-        <v>1712</v>
+        <v>1512</v>
       </c>
       <c r="C6" s="29">
         <f>SUM(M9)</f>
@@ -42779,19 +42702,19 @@
     </row>
     <row r="8" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="6">
         <f t="shared" ref="B8:T8" si="0">100*B9/$A$9</f>
-        <v>21.073801507612547</v>
+        <v>22.409149954060133</v>
       </c>
       <c r="C8" s="6">
         <f t="shared" si="0"/>
-        <v>26.815242975896073</v>
+        <v>28.514399771884801</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" si="0"/>
-        <v>0.35753657301194763</v>
+        <v>0.38019199695846401</v>
       </c>
       <c r="E8" s="6">
         <f t="shared" si="0"/>
@@ -42803,27 +42726,27 @@
       </c>
       <c r="G8" s="6">
         <f t="shared" si="0"/>
-        <v>0.74486786044155762</v>
+        <v>0.79206666033013329</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" si="0"/>
-        <v>1.2513780055418169</v>
+        <v>1.3306719893546239</v>
       </c>
       <c r="I8" s="6">
         <f t="shared" si="0"/>
-        <v>12.811727199594792</v>
+        <v>13.623546557678294</v>
       </c>
       <c r="J8" s="6">
         <f t="shared" si="0"/>
-        <v>22.941930101599976</v>
+        <v>24.395653138168107</v>
       </c>
       <c r="K8" s="6">
         <f t="shared" si="0"/>
-        <v>4.4692071626493455</v>
+        <v>4.7523999619808004</v>
       </c>
       <c r="L8" s="6">
         <f t="shared" si="0"/>
-        <v>3.5753657301194766</v>
+        <v>3.80191996958464</v>
       </c>
       <c r="M8" s="6">
         <f t="shared" si="0"/>
@@ -42835,7 +42758,7 @@
       </c>
       <c r="O8" s="6">
         <f t="shared" si="0"/>
-        <v>5.9589428835324609</v>
+        <v>0</v>
       </c>
       <c r="P8" s="6">
         <f t="shared" si="0"/>
@@ -42861,7 +42784,7 @@
     <row r="9" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <f>SUM(B9:Z9)</f>
-        <v>3356.3</v>
+        <v>3156.3</v>
       </c>
       <c r="B9" s="16">
         <f>SUM(B11:B706)</f>
@@ -42908,7 +42831,7 @@
         <v>120</v>
       </c>
       <c r="M9" s="16">
-        <f t="shared" si="1"/>
+        <f>SUM(M12:M706)</f>
         <v>0</v>
       </c>
       <c r="N9" s="16">
@@ -42917,7 +42840,7 @@
       </c>
       <c r="O9" s="16">
         <f t="shared" si="1"/>
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P9" s="16">
         <f t="shared" si="1"/>
@@ -42957,7 +42880,7 @@
         <v>6</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G10" s="14" t="s">
         <v>5</v>
@@ -42966,7 +42889,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J10" s="14" t="s">
         <v>2</v>
@@ -42978,17 +42901,12 @@
         <v>7</v>
       </c>
       <c r="M10" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="N10" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="N10" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="O10" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="P10" s="24" t="s">
-        <v>18</v>
-      </c>
+      <c r="P10" s="24"/>
       <c r="Q10" s="24"/>
       <c r="R10" s="24"/>
       <c r="S10" s="24"/>
@@ -43027,11 +42945,11 @@
       <c r="L11" s="19">
         <v>120</v>
       </c>
-      <c r="M11" s="19"/>
+      <c r="M11" s="19">
+        <v>200</v>
+      </c>
       <c r="N11" s="19"/>
-      <c r="O11" s="19">
-        <v>200</v>
-      </c>
+      <c r="O11" s="19"/>
       <c r="P11" s="19"/>
       <c r="Q11" s="19"/>
       <c r="R11" s="19"/>
@@ -46079,7 +45997,7 @@
   <dimension ref="A1:AA140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -46096,15 +46014,15 @@
     <col min="10" max="10" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="7.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B1" s="31">
         <f>E1-A9</f>
@@ -46131,7 +46049,7 @@
     </row>
     <row r="2" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B2" s="32">
         <f>E2-A9</f>
@@ -46139,7 +46057,7 @@
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" s="10">
         <f>SUM(F2:K2)</f>
@@ -46177,10 +46095,10 @@
         <v>4</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H3" s="23"/>
       <c r="I3" s="23"/>
@@ -46230,16 +46148,16 @@
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
@@ -46272,11 +46190,11 @@
       </c>
       <c r="B6" s="29">
         <f>SUM(H9+J9+K9+I9+L9+N9+P9+O9)</f>
-        <v>850</v>
+        <v>910</v>
       </c>
       <c r="C6" s="29">
         <f>SUM(M9)</f>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="D6" s="33">
         <v>500</v>
@@ -46323,7 +46241,7 @@
     </row>
     <row r="8" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="6">
         <f t="shared" ref="B8:T8" si="0">100*B9/$A$9</f>
@@ -46371,11 +46289,11 @@
       </c>
       <c r="M8" s="6">
         <f t="shared" si="0"/>
-        <v>2.395687762028349</v>
+        <v>0</v>
       </c>
       <c r="N8" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.395687762028349</v>
       </c>
       <c r="O8" s="6">
         <f t="shared" si="0"/>
@@ -46453,11 +46371,11 @@
       </c>
       <c r="M9" s="16">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N9" s="16">
+        <f>SUM(N11:N706)</f>
         <v>60</v>
-      </c>
-      <c r="N9" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
       <c r="O9" s="16">
         <f t="shared" si="1"/>
@@ -46501,7 +46419,7 @@
         <v>6</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G10" s="14" t="s">
         <v>5</v>
@@ -46510,7 +46428,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J10" s="14" t="s">
         <v>2</v>
@@ -46522,17 +46440,12 @@
         <v>7</v>
       </c>
       <c r="M10" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="N10" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="N10" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="O10" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="P10" s="24" t="s">
-        <v>18</v>
-      </c>
+      <c r="P10" s="24"/>
       <c r="Q10" s="24"/>
       <c r="R10" s="24"/>
       <c r="S10" s="24"/>
@@ -46563,10 +46476,10 @@
       <c r="J11" s="19"/>
       <c r="K11" s="19"/>
       <c r="L11" s="19"/>
-      <c r="M11" s="19">
+      <c r="M11" s="19"/>
+      <c r="N11" s="19">
         <v>60</v>
       </c>
-      <c r="N11" s="19"/>
       <c r="O11" s="19"/>
       <c r="P11" s="19"/>
       <c r="Q11" s="19"/>

--- a/data_and_results/yearly data/2099.xlsx
+++ b/data_and_results/yearly data/2099.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="11760" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="11760" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="01" sheetId="2" r:id="rId1"/>
@@ -10616,8 +10616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA140"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14150,7 +14150,7 @@
   <dimension ref="A1:AA140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17687,7 +17687,7 @@
   <dimension ref="A1:AA140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18060,7 +18060,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="16">
-        <f t="shared" si="1"/>
+        <f>SUM(M11:M706)</f>
         <v>0</v>
       </c>
       <c r="N9" s="16">
@@ -18072,15 +18072,15 @@
         <v>0</v>
       </c>
       <c r="P9" s="16">
-        <f t="shared" si="1"/>
+        <f>SUM(P11:P706)</f>
         <v>0</v>
       </c>
       <c r="Q9" s="16">
-        <f t="shared" si="1"/>
+        <f>SUM(Q11:Q706)</f>
         <v>0</v>
       </c>
       <c r="R9" s="16">
-        <f t="shared" si="1"/>
+        <f>SUM(R11:R706)</f>
         <v>0</v>
       </c>
       <c r="S9" s="17">
@@ -35408,7 +35408,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA140"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
@@ -42464,7 +42464,7 @@
   <dimension ref="A1:AA140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+      <selection activeCell="Q10" sqref="Q10:Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -42791,11 +42791,11 @@
         <v>707.3</v>
       </c>
       <c r="C9" s="16">
-        <f t="shared" ref="C9:T9" si="1">SUM(C11:C706)</f>
+        <f>SUM(C11:C706)</f>
         <v>900</v>
       </c>
       <c r="D9" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="D9:T9" si="1">SUM(D11:D706)</f>
         <v>12</v>
       </c>
       <c r="E9" s="16">
@@ -42847,7 +42847,7 @@
         <v>0</v>
       </c>
       <c r="Q9" s="16">
-        <f t="shared" si="1"/>
+        <f>SUM(Q11:Q706)</f>
         <v>0</v>
       </c>
       <c r="R9" s="16">
